--- a/dataset microorganismi singoli.xlsx
+++ b/dataset microorganismi singoli.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\SR single micro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.chiapparoli\Documents\SR single micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39767B0-8117-4891-B66F-E1B95AD94EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="micro_singoli" sheetId="1" r:id="rId1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -343,7 +342,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -620,23 +619,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -731,7 +730,7 @@
         <v>3.7690000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -779,7 +778,7 @@
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -827,7 +826,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -875,7 +874,7 @@
         <v>2.5539999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -923,7 +922,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -971,7 +970,7 @@
         <v>2.9649999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>2.5129999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>3.5859999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>3.3580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1450,7 @@
         <v>3.0030000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>2.7959999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>2.2450000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>2.6339999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>7.4610000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1786,7 @@
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>2.6539999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>1.929</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2555,7 +2554,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>1.6140000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>2.1859999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>1.9179999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>6.0860000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>6.4809999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>6.7130000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>5.7859999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>6.4980000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>2.4220000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>1.903</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>2.3740000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>2.347</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>2.5510000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>2.3410000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>1.9370000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>2.6829999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>2.835</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>3.3079999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4491,7 +4490,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>2.1379999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Trial_1</v>
@@ -4692,7 +4691,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" ref="A88:A129" si="5">A87</f>
         <v>Trial_1</v>
@@ -4717,7 +4716,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4742,7 +4741,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4767,7 +4766,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4792,7 +4791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4817,7 +4816,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4842,7 +4841,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4867,7 +4866,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4892,7 +4891,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4917,7 +4916,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4942,7 +4941,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4967,7 +4966,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4992,7 +4991,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5017,7 +5016,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5042,7 +5041,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5067,7 +5066,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5092,7 +5091,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5117,7 +5116,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5142,7 +5141,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5167,7 +5166,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5192,7 +5191,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5217,7 +5216,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5242,7 +5241,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5267,7 +5266,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5292,7 +5291,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5317,7 +5316,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5342,7 +5341,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5367,7 +5366,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5392,7 +5391,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5417,7 +5416,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5442,7 +5441,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5467,7 +5466,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5492,7 +5491,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5517,7 +5516,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5542,7 +5541,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5567,7 +5566,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5592,7 +5591,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5617,7 +5616,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5642,7 +5641,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5667,7 +5666,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5692,7 +5691,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5717,7 +5716,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5742,7 +5741,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f>A130</f>
         <v>Trial_2</v>
@@ -5791,7 +5790,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A173" si="6">A131</f>
         <v>Trial_2</v>
@@ -5816,7 +5815,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5841,7 +5840,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5866,7 +5865,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5891,7 +5890,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5916,7 +5915,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5941,7 +5940,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5966,7 +5965,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5991,7 +5990,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6016,7 +6015,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6041,7 +6040,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6066,7 +6065,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6091,7 +6090,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6116,7 +6115,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6141,7 +6140,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6166,7 +6165,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6191,7 +6190,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6216,7 +6215,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6241,7 +6240,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6266,7 +6265,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6291,7 +6290,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6316,7 +6315,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6341,7 +6340,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6366,7 +6365,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6391,7 +6390,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6416,7 +6415,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6441,7 +6440,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6466,7 +6465,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6491,7 +6490,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6516,7 +6515,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6541,7 +6540,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6566,7 +6565,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6591,7 +6590,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6616,7 +6615,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6641,7 +6640,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6666,7 +6665,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6691,7 +6690,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6716,7 +6715,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6741,7 +6740,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6766,7 +6765,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6791,7 +6790,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6816,7 +6815,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6847,22 +6846,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="2"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6926,12 +6925,9 @@
       <c r="J2">
         <v>35</v>
       </c>
-      <c r="M2" s="1">
-        <f>AVERAGE(E2:E5)</f>
-        <v>6.4604831907917823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6964,7 +6960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6997,7 +6993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7062,12 +7058,9 @@
       <c r="J6">
         <v>35</v>
       </c>
-      <c r="M6" s="1">
-        <f>AVERAGE(E6:E9)</f>
-        <v>23.343483421923747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7100,7 +7093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7133,7 +7126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7166,7 +7159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7198,12 +7191,9 @@
       <c r="J10">
         <v>23.75</v>
       </c>
-      <c r="M10" s="1">
-        <f>AVERAGE(D10:D12)</f>
-        <v>37.735042735042732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7236,7 +7226,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7269,7 +7259,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -7301,12 +7291,9 @@
       <c r="J13">
         <v>23.75</v>
       </c>
-      <c r="M13" s="1">
-        <f>AVERAGE(D13:D15)</f>
-        <v>46.868686868686865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7339,7 +7326,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7372,7 +7359,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7404,12 +7391,9 @@
       <c r="J16">
         <v>30</v>
       </c>
-      <c r="M16" s="1">
-        <f t="shared" ref="M16" si="1">AVERAGE(E16:E19)</f>
-        <v>46.434792619316696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7442,7 +7426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7475,7 +7459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7508,7 +7492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -7540,12 +7524,9 @@
       <c r="J20">
         <v>30</v>
       </c>
-      <c r="M20" s="1">
-        <f t="shared" ref="M20" si="2">AVERAGE(E20:E23)</f>
-        <v>53.114400780930524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7578,7 +7559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7611,7 +7592,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7644,7 +7625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7676,12 +7657,9 @@
       <c r="J24">
         <v>23.75</v>
       </c>
-      <c r="M24" s="1">
-        <f t="shared" ref="M24" si="3">AVERAGE(D24:D26)</f>
-        <v>29.56349206349206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7714,7 +7692,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7747,7 +7725,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -7779,12 +7757,9 @@
       <c r="J27">
         <v>23.75</v>
       </c>
-      <c r="M27" s="1">
-        <f t="shared" ref="M27" si="4">AVERAGE(D27:D29)</f>
-        <v>3.7878787878787885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7817,7 +7792,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7850,7 +7825,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7882,12 +7857,9 @@
       <c r="J30">
         <v>35</v>
       </c>
-      <c r="M30" s="1">
-        <f t="shared" ref="M30" si="5">AVERAGE(E30:E33)</f>
-        <v>41.405691191923026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7920,7 +7892,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7953,7 +7925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7986,7 +7958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -8000,7 +7972,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" ref="E34:E65" si="6">ASIN(SQRT(D34/100))*180/PI()</f>
+        <f t="shared" ref="E34:E65" si="1">ASIN(SQRT(D34/100))*180/PI()</f>
         <v>50.768479516407751</v>
       </c>
       <c r="F34">
@@ -8018,12 +7990,9 @@
       <c r="J34">
         <v>35</v>
       </c>
-      <c r="M34" s="1">
-        <f t="shared" ref="M34" si="7">AVERAGE(E34:E37)</f>
-        <v>46.419435677396962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8037,7 +8006,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>50.768479516407751</v>
       </c>
       <c r="F35">
@@ -8056,7 +8025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8070,7 +8039,7 @@
         <v>55.000000000000007</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>47.869585238633384</v>
       </c>
       <c r="F36">
@@ -8089,7 +8058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -8103,7 +8072,7 @@
         <v>35</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F37">
@@ -8122,7 +8091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8136,7 +8105,7 @@
         <v>35</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F38">
@@ -8154,12 +8123,9 @@
       <c r="J38">
         <v>23.75</v>
       </c>
-      <c r="M38" s="1">
-        <f t="shared" ref="M38" si="8">AVERAGE(D38:D40)</f>
-        <v>36.111111111111107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8173,7 +8139,7 @@
         <v>31.666666666666661</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>34.244905866556259</v>
       </c>
       <c r="F39">
@@ -8192,7 +8158,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -8206,7 +8172,7 @@
         <v>41.666666666666671</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>40.202965886569778</v>
       </c>
       <c r="F40">
@@ -8225,7 +8191,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -8239,7 +8205,7 @@
         <v>50</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F41">
@@ -8257,12 +8223,9 @@
       <c r="J41">
         <v>23.75</v>
       </c>
-      <c r="M41" s="1">
-        <f t="shared" ref="M41" si="9">AVERAGE(D41:D43)</f>
-        <v>47.222222222222229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -8276,7 +8239,7 @@
         <v>41.666666666666671</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>40.202965886569778</v>
       </c>
       <c r="F42">
@@ -8295,7 +8258,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -8309,7 +8272,7 @@
         <v>50</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F43">
@@ -8328,7 +8291,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8342,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F44">
@@ -8360,12 +8323,9 @@
       <c r="J44">
         <v>15</v>
       </c>
-      <c r="M44" s="1">
-        <f t="shared" ref="M44" si="10">AVERAGE(E44:E47)</f>
-        <v>16.765844896421573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8379,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>22.786497999597149</v>
       </c>
       <c r="F45">
@@ -8398,7 +8358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8412,7 +8372,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F46">
@@ -8431,7 +8391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8445,7 +8405,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F47">
@@ -8464,7 +8424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -8478,7 +8438,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F48">
@@ -8496,12 +8456,9 @@
       <c r="J48">
         <v>15</v>
       </c>
-      <c r="M48" s="1">
-        <f t="shared" ref="M48" si="11">AVERAGE(E48:E51)</f>
-        <v>37.711011110999223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -8515,7 +8472,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F49">
@@ -8534,7 +8491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -8548,7 +8505,7 @@
         <v>40</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F50">
@@ -8567,7 +8524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -8581,7 +8538,7 @@
         <v>35</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F51">
@@ -8600,7 +8557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -8614,7 +8571,7 @@
         <v>56.666666666666657</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>48.831127830383025</v>
       </c>
       <c r="F52">
@@ -8632,12 +8589,9 @@
       <c r="J52">
         <v>23.75</v>
       </c>
-      <c r="M52" s="1">
-        <f t="shared" ref="M52" si="12">AVERAGE(D52:D54)</f>
-        <v>51.111111111111114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -8651,7 +8605,7 @@
         <v>48.333333333333343</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>44.044893414145044</v>
       </c>
       <c r="F53">
@@ -8670,7 +8624,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -8684,7 +8638,7 @@
         <v>48.333333333333343</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>44.044893414145044</v>
       </c>
       <c r="F54">
@@ -8703,7 +8657,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -8717,7 +8671,7 @@
         <v>70.833333333333343</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>57.312159176082048</v>
       </c>
       <c r="F55">
@@ -8735,12 +8689,9 @@
       <c r="J55">
         <v>23.75</v>
       </c>
-      <c r="M55" s="1">
-        <f t="shared" ref="M55" si="13">AVERAGE(D55:D57)</f>
-        <v>68.055555555555557</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -8754,7 +8705,7 @@
         <v>60.416666666666657</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>51.012349590282909</v>
       </c>
       <c r="F56">
@@ -8773,7 +8724,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -8787,7 +8738,7 @@
         <v>72.916666666666657</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>58.639806367989038</v>
       </c>
       <c r="F57">
@@ -8806,7 +8757,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8820,7 +8771,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F58">
@@ -8838,12 +8789,9 @@
       <c r="J58">
         <v>35</v>
       </c>
-      <c r="M58" s="1">
-        <f t="shared" ref="M58" si="14">AVERAGE(E58:E61)</f>
-        <v>33.032603690341652</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8857,7 +8805,7 @@
         <v>45</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F59">
@@ -8876,7 +8824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8890,7 +8838,7 @@
         <v>25</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F60">
@@ -8909,7 +8857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8923,7 +8871,7 @@
         <v>25</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F61">
@@ -8942,7 +8890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -8956,7 +8904,7 @@
         <v>80</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>63.43494882292201</v>
       </c>
       <c r="F62">
@@ -8974,12 +8922,9 @@
       <c r="J62">
         <v>35</v>
       </c>
-      <c r="M62" s="1">
-        <f t="shared" ref="M62" si="15">AVERAGE(E62:E65)</f>
-        <v>54.098817717093837</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8993,7 +8938,7 @@
         <v>40</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F63">
@@ -9012,7 +8957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -9026,7 +8971,7 @@
         <v>65</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>53.728801561861061</v>
       </c>
       <c r="F64">
@@ -9045,7 +8990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -9059,7 +9004,7 @@
         <v>75</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>59.999999999999993</v>
       </c>
       <c r="F65">
@@ -9078,7 +9023,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -9092,7 +9037,7 @@
         <v>30</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" ref="E66:E79" si="16">ASIN(SQRT(D66/100))*180/PI()</f>
+        <f t="shared" ref="E66:E79" si="2">ASIN(SQRT(D66/100))*180/PI()</f>
         <v>33.210910760899083</v>
       </c>
       <c r="F66">
@@ -9110,12 +9055,9 @@
       <c r="J66">
         <v>23.75</v>
       </c>
-      <c r="M66" s="1">
-        <f t="shared" ref="M66" si="17">AVERAGE(D66:D68)</f>
-        <v>31.666666666666661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -9129,7 +9071,7 @@
         <v>31.666666666666661</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>34.244905866556259</v>
       </c>
       <c r="F67">
@@ -9148,7 +9090,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -9162,7 +9104,7 @@
         <v>33.333333333333329</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>35.264389682754654</v>
       </c>
       <c r="F68">
@@ -9181,7 +9123,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -9195,7 +9137,7 @@
         <v>2.7777777777777781</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>9.5940682268604629</v>
       </c>
       <c r="F69">
@@ -9213,12 +9155,9 @@
       <c r="J69">
         <v>23.75</v>
       </c>
-      <c r="M69" s="1">
-        <f t="shared" ref="M69" si="18">AVERAGE(D69:D71)</f>
-        <v>6.3425925925925926</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -9232,7 +9171,7 @@
         <v>10</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F70">
@@ -9251,7 +9190,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -9265,7 +9204,7 @@
         <v>6.25</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>14.477512185929923</v>
       </c>
       <c r="F71">
@@ -9284,7 +9223,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -9298,7 +9237,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F72">
@@ -9316,12 +9255,9 @@
       <c r="J72">
         <v>25</v>
       </c>
-      <c r="M72" s="1">
-        <f t="shared" ref="M72:M128" si="19">AVERAGE(E72:E75)</f>
-        <v>6.4604831907917823</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -9335,7 +9271,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F73">
@@ -9354,7 +9290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -9368,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F74">
@@ -9387,7 +9323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -9401,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75">
@@ -9420,7 +9356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -9434,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F76">
@@ -9452,12 +9388,9 @@
       <c r="J76">
         <v>25</v>
       </c>
-      <c r="M76" s="1">
-        <f t="shared" ref="M76:M132" si="20">AVERAGE(E76:E79)</f>
-        <v>18.893248999798576</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -9471,7 +9404,7 @@
         <v>15</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>22.786497999597149</v>
       </c>
       <c r="F77">
@@ -9490,7 +9423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -9504,7 +9437,7 @@
         <v>15</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>22.786497999597149</v>
       </c>
       <c r="F78">
@@ -9523,7 +9456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -9537,7 +9470,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F79">
@@ -9556,7 +9489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -9570,7 +9503,7 @@
         <v>39.285714285714278</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" ref="E80:E111" si="21">ASIN(SQRT(D80/100))*180/PI()</f>
+        <f t="shared" ref="E80:E111" si="3">ASIN(SQRT(D80/100))*180/PI()</f>
         <v>38.813187441905718</v>
       </c>
       <c r="F80">
@@ -9588,12 +9521,9 @@
       <c r="J80">
         <v>23.75</v>
       </c>
-      <c r="M80" s="1">
-        <f t="shared" ref="M80:M136" si="22">AVERAGE(D80:D82)</f>
-        <v>39.761904761904752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9607,7 +9537,7 @@
         <v>46.666666666666657</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>43.08872313536282</v>
       </c>
       <c r="F81">
@@ -9626,7 +9556,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9640,7 +9570,7 @@
         <v>33.333333333333329</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>35.264389682754654</v>
       </c>
       <c r="F82">
@@ -9659,7 +9589,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -9673,7 +9603,7 @@
         <v>50</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F83">
@@ -9691,12 +9621,9 @@
       <c r="J83">
         <v>23.75</v>
       </c>
-      <c r="M83" s="1">
-        <f t="shared" ref="M83:M139" si="23">AVERAGE(D83:D85)</f>
-        <v>47.032828282828291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -9710,7 +9637,7 @@
         <v>43.18181818181818</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>41.081260118457855</v>
       </c>
       <c r="F84">
@@ -9729,7 +9656,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -9743,7 +9670,7 @@
         <v>47.916666666666671</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>43.805992268365614</v>
       </c>
       <c r="F85">
@@ -9762,7 +9689,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9776,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86">
@@ -9794,12 +9721,9 @@
       <c r="J86">
         <v>20</v>
       </c>
-      <c r="M86" s="1">
-        <f t="shared" si="19"/>
-        <v>12.447716006856897</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9813,7 +9737,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F87">
@@ -9832,7 +9756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9846,7 +9770,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F88">
@@ -9865,7 +9789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9879,7 +9803,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F89">
@@ -9898,7 +9822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -9912,7 +9836,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F90">
@@ -9930,12 +9854,9 @@
       <c r="J90">
         <v>20</v>
       </c>
-      <c r="M90" s="1">
-        <f t="shared" si="20"/>
-        <v>25.209506100885903</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -9949,7 +9870,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F91">
@@ -9968,7 +9889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -9982,7 +9903,7 @@
         <v>30</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F92">
@@ -10001,7 +9922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -10015,7 +9936,7 @@
         <v>35</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F93">
@@ -10034,7 +9955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -10048,7 +9969,7 @@
         <v>45</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F94">
@@ -10066,12 +9987,9 @@
       <c r="J94">
         <v>23.75</v>
       </c>
-      <c r="M94" s="1">
-        <f t="shared" si="22"/>
-        <v>42.222222222222221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -10085,7 +10003,7 @@
         <v>36.666666666666657</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>37.266995023289724</v>
       </c>
       <c r="F95">
@@ -10104,7 +10022,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -10118,7 +10036,7 @@
         <v>45</v>
       </c>
       <c r="E96" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F96">
@@ -10137,7 +10055,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -10151,7 +10069,7 @@
         <v>62.5</v>
       </c>
       <c r="E97" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>52.238756092964962</v>
       </c>
       <c r="F97">
@@ -10169,12 +10087,9 @@
       <c r="J97">
         <v>23.75</v>
       </c>
-      <c r="M97" s="1">
-        <f t="shared" si="23"/>
-        <v>63.888888888888893</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -10188,7 +10103,7 @@
         <v>58.333333333333343</v>
       </c>
       <c r="E98" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>49.797034113430229</v>
       </c>
       <c r="F98">
@@ -10207,7 +10122,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -10221,7 +10136,7 @@
         <v>70.833333333333343</v>
       </c>
       <c r="E99" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>57.312159176082048</v>
       </c>
       <c r="F99">
@@ -10240,7 +10155,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -10254,7 +10169,7 @@
         <v>50</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F100">
@@ -10272,12 +10187,9 @@
       <c r="J100">
         <v>35</v>
       </c>
-      <c r="M100" s="1">
-        <f t="shared" si="19"/>
-        <v>33.693990484494265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -10291,7 +10203,7 @@
         <v>30</v>
       </c>
       <c r="E101" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F101">
@@ -10310,7 +10222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -10324,7 +10236,7 @@
         <v>25</v>
       </c>
       <c r="E102" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F102">
@@ -10343,7 +10255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10357,7 +10269,7 @@
         <v>20</v>
       </c>
       <c r="E103" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>26.56505117707799</v>
       </c>
       <c r="F103">
@@ -10376,7 +10288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -10390,7 +10302,7 @@
         <v>50</v>
       </c>
       <c r="E104" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F104">
@@ -10408,12 +10320,9 @@
       <c r="J104">
         <v>35</v>
       </c>
-      <c r="M104" s="1">
-        <f t="shared" si="20"/>
-        <v>48.671995879218819</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -10427,7 +10336,7 @@
         <v>70</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>56.789089239100917</v>
       </c>
       <c r="F105">
@@ -10446,7 +10355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -10460,7 +10369,7 @@
         <v>45</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F106">
@@ -10479,7 +10388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -10493,7 +10402,7 @@
         <v>60</v>
       </c>
       <c r="E107" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>50.768479516407751</v>
       </c>
       <c r="F107">
@@ -10512,7 +10421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -10526,7 +10435,7 @@
         <v>48.214285714285722</v>
       </c>
       <c r="E108" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>43.976643451163724</v>
       </c>
       <c r="F108">
@@ -10544,12 +10453,9 @@
       <c r="J108">
         <v>23.75</v>
       </c>
-      <c r="M108" s="1">
-        <f t="shared" si="22"/>
-        <v>47.738095238095241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -10563,7 +10469,7 @@
         <v>48.333333333333343</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>44.044893414145044</v>
       </c>
       <c r="F109">
@@ -10582,7 +10488,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -10596,7 +10502,7 @@
         <v>46.666666666666657</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>43.08872313536282</v>
       </c>
       <c r="F110">
@@ -10615,7 +10521,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -10629,7 +10535,7 @@
         <v>54.54545454545454</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="3"/>
         <v>47.607954285227066</v>
       </c>
       <c r="F111">
@@ -10647,12 +10553,9 @@
       <c r="J111">
         <v>23.75</v>
       </c>
-      <c r="M111" s="1">
-        <f t="shared" si="23"/>
-        <v>58.017676767676761</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -10666,7 +10569,7 @@
         <v>59.090909090909093</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" ref="E112:E143" si="24">ASIN(SQRT(D112/100))*180/PI()</f>
+        <f t="shared" ref="E112:E143" si="4">ASIN(SQRT(D112/100))*180/PI()</f>
         <v>50.237840848194956</v>
       </c>
       <c r="F112">
@@ -10685,7 +10588,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -10699,7 +10602,7 @@
         <v>60.416666666666657</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>51.012349590282909</v>
       </c>
       <c r="F113">
@@ -10718,7 +10621,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -10732,7 +10635,7 @@
         <v>45</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>42.130414761366609</v>
       </c>
       <c r="F114">
@@ -10750,12 +10653,9 @@
       <c r="J114">
         <v>30</v>
       </c>
-      <c r="M114" s="1">
-        <f t="shared" si="19"/>
-        <v>46.442119879101938</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -10769,7 +10669,7 @@
         <v>60</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>50.768479516407751</v>
       </c>
       <c r="F115">
@@ -10788,7 +10688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -10802,7 +10702,7 @@
         <v>50</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F116">
@@ -10821,7 +10721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -10835,7 +10735,7 @@
         <v>55.000000000000007</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>47.869585238633384</v>
       </c>
       <c r="F117">
@@ -10854,7 +10754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2</v>
       </c>
@@ -10868,7 +10768,7 @@
         <v>75</v>
       </c>
       <c r="E118" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>59.999999999999993</v>
       </c>
       <c r="F118">
@@ -10886,12 +10786,9 @@
       <c r="J118">
         <v>30</v>
       </c>
-      <c r="M118" s="1">
-        <f t="shared" si="20"/>
-        <v>61.899231104844603</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -10905,7 +10802,7 @@
         <v>95</v>
       </c>
       <c r="E119" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>77.079033618416432</v>
       </c>
       <c r="F119">
@@ -10924,7 +10821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -10938,7 +10835,7 @@
         <v>65</v>
       </c>
       <c r="E120" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>53.728801561861061</v>
       </c>
       <c r="F120">
@@ -10957,7 +10854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -10971,7 +10868,7 @@
         <v>70</v>
       </c>
       <c r="E121" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>56.789089239100917</v>
       </c>
       <c r="F121">
@@ -10990,7 +10887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -11004,7 +10901,7 @@
         <v>35</v>
       </c>
       <c r="E122" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F122">
@@ -11022,12 +10919,9 @@
       <c r="J122">
         <v>23.75</v>
       </c>
-      <c r="M122" s="1">
-        <f t="shared" si="22"/>
-        <v>38.095238095238095</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -11041,7 +10935,7 @@
         <v>40</v>
       </c>
       <c r="E123" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F123">
@@ -11060,7 +10954,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -11074,7 +10968,7 @@
         <v>39.285714285714278</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>38.813187441905718</v>
       </c>
       <c r="F124">
@@ -11093,7 +10987,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -11107,7 +11001,7 @@
         <v>54.166666666666657</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>47.390095923599567</v>
       </c>
       <c r="F125">
@@ -11125,12 +11019,9 @@
       <c r="J125">
         <v>23.75</v>
       </c>
-      <c r="M125" s="1">
-        <f t="shared" si="23"/>
-        <v>51.388888888888893</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -11144,7 +11035,7 @@
         <v>41.666666666666671</v>
       </c>
       <c r="E126" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>40.202965886569778</v>
       </c>
       <c r="F126">
@@ -11163,7 +11054,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -11177,7 +11068,7 @@
         <v>58.333333333333343</v>
       </c>
       <c r="E127" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>49.797034113430229</v>
       </c>
       <c r="F127">
@@ -11196,7 +11087,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -11210,7 +11101,7 @@
         <v>40</v>
       </c>
       <c r="E128" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F128">
@@ -11228,12 +11119,9 @@
       <c r="J128">
         <v>35</v>
       </c>
-      <c r="M128" s="1">
-        <f t="shared" si="19"/>
-        <v>33.913335501347611</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -11247,7 +11135,7 @@
         <v>30</v>
       </c>
       <c r="E129" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F129">
@@ -11266,7 +11154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -11280,7 +11168,7 @@
         <v>30</v>
       </c>
       <c r="E130" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F130">
@@ -11299,7 +11187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -11313,7 +11201,7 @@
         <v>25</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>30.000000000000004</v>
       </c>
       <c r="F131">
@@ -11332,7 +11220,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -11346,7 +11234,7 @@
         <v>35</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>36.271198438138953</v>
       </c>
       <c r="F132">
@@ -11364,12 +11252,9 @@
       <c r="J132">
         <v>35</v>
       </c>
-      <c r="M132" s="1">
-        <f t="shared" si="20"/>
-        <v>31.787144626388077</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -11383,7 +11268,7 @@
         <v>40</v>
       </c>
       <c r="E133" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F133">
@@ -11402,7 +11287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -11416,7 +11301,7 @@
         <v>10</v>
       </c>
       <c r="E134" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F134">
@@ -11435,7 +11320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -11449,7 +11334,7 @@
         <v>30</v>
       </c>
       <c r="E135" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F135">
@@ -11468,7 +11353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -11482,7 +11367,7 @@
         <v>38.333333333333343</v>
       </c>
       <c r="E136" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>38.25330058922416</v>
       </c>
       <c r="F136">
@@ -11500,12 +11385,9 @@
       <c r="J136">
         <v>23.75</v>
       </c>
-      <c r="M136" s="1">
-        <f t="shared" si="22"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -11519,7 +11401,7 @@
         <v>50</v>
       </c>
       <c r="E137" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F137">
@@ -11538,7 +11420,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -11552,7 +11434,7 @@
         <v>46.666666666666657</v>
       </c>
       <c r="E138" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>43.08872313536282</v>
       </c>
       <c r="F138">
@@ -11571,7 +11453,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -11585,7 +11467,7 @@
         <v>50</v>
       </c>
       <c r="E139" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F139">
@@ -11603,12 +11485,9 @@
       <c r="J139">
         <v>23.75</v>
       </c>
-      <c r="M139" s="1">
-        <f t="shared" si="23"/>
-        <v>52.777777777777779</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -11622,7 +11501,7 @@
         <v>58.333333333333343</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>49.797034113430229</v>
       </c>
       <c r="F140">
@@ -11641,7 +11520,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -11655,7 +11534,7 @@
         <v>50</v>
       </c>
       <c r="E141" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F141">
@@ -11674,7 +11553,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -11688,7 +11567,7 @@
         <v>10</v>
       </c>
       <c r="E142" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F142">
@@ -11706,12 +11585,9 @@
       <c r="J142">
         <v>35</v>
       </c>
-      <c r="M142" s="1">
-        <f t="shared" ref="M142" si="25">AVERAGE(E142:E145)</f>
-        <v>19.232227800924971</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -11725,7 +11601,7 @@
         <v>15</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>22.786497999597149</v>
       </c>
       <c r="F143">
@@ -11744,7 +11620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -11758,7 +11634,7 @@
         <v>15</v>
       </c>
       <c r="E144" s="1">
-        <f t="shared" ref="E144:E155" si="26">ASIN(SQRT(D144/100))*180/PI()</f>
+        <f t="shared" ref="E144:E155" si="5">ASIN(SQRT(D144/100))*180/PI()</f>
         <v>22.786497999597149</v>
       </c>
       <c r="F144">
@@ -11777,7 +11653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -11791,7 +11667,7 @@
         <v>5</v>
       </c>
       <c r="E145" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>12.920966381583565</v>
       </c>
       <c r="F145">
@@ -11810,7 +11686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
@@ -11824,7 +11700,7 @@
         <v>40</v>
       </c>
       <c r="E146" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>39.231520483592263</v>
       </c>
       <c r="F146">
@@ -11842,12 +11718,9 @@
       <c r="J146">
         <v>35</v>
       </c>
-      <c r="M146" s="1">
-        <f t="shared" ref="M146" si="27">AVERAGE(E146:E149)</f>
-        <v>31.022072707078109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -11861,7 +11734,7 @@
         <v>30</v>
       </c>
       <c r="E147" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F147">
@@ -11880,7 +11753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -11894,7 +11767,7 @@
         <v>10</v>
       </c>
       <c r="E148" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>18.434948822922014</v>
       </c>
       <c r="F148">
@@ -11913,7 +11786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -11927,7 +11800,7 @@
         <v>30</v>
       </c>
       <c r="E149" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>33.210910760899083</v>
       </c>
       <c r="F149">
@@ -11946,7 +11819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -11960,7 +11833,7 @@
         <v>18.333333333333329</v>
       </c>
       <c r="E150" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>25.351759880406242</v>
       </c>
       <c r="F150">
@@ -11978,12 +11851,9 @@
       <c r="J150">
         <v>23.75</v>
       </c>
-      <c r="M150" s="1">
-        <f t="shared" ref="M150" si="28">AVERAGE(D150:D152)</f>
-        <v>21.111111111111111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -11997,7 +11867,7 @@
         <v>23.333333333333329</v>
       </c>
       <c r="E151" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>28.884523682248943</v>
       </c>
       <c r="F151">
@@ -12016,7 +11886,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -12030,7 +11900,7 @@
         <v>21.666666666666671</v>
       </c>
       <c r="E152" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>27.740946079469374</v>
       </c>
       <c r="F152">
@@ -12049,7 +11919,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -12063,7 +11933,7 @@
         <v>56.25</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>48.590377890729144</v>
       </c>
       <c r="F153">
@@ -12081,12 +11951,9 @@
       <c r="J153">
         <v>23.75</v>
       </c>
-      <c r="M153" s="1">
-        <f t="shared" ref="M153" si="29">AVERAGE(D153:D155)</f>
-        <v>53.598484848484844</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -12100,7 +11967,7 @@
         <v>54.54545454545454</v>
       </c>
       <c r="E154" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>47.607954285227066</v>
       </c>
       <c r="F154">
@@ -12119,7 +11986,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -12133,7 +12000,7 @@
         <v>50</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="5"/>
         <v>45.000000000000007</v>
       </c>
       <c r="F155">
@@ -12153,7 +12020,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
+  <sortState ref="A2:J155">
     <sortCondition ref="B2:B155"/>
     <sortCondition ref="A2:A155"/>
   </sortState>
@@ -12162,23 +12029,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85546875" style="7"/>
+    <col min="6" max="6" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12199,7 +12066,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -12219,7 +12086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -12239,7 +12106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -12259,7 +12126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -12279,7 +12146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -12299,7 +12166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -12330,7 +12197,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -12366,7 +12233,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -12402,7 +12269,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -12437,7 +12304,7 @@
         <v>5.333333333333333E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -12473,7 +12340,7 @@
         <v>0.43444444444444447</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -12496,7 +12363,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3</v>
       </c>
@@ -12519,7 +12386,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -12542,7 +12409,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -12565,7 +12432,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>3</v>
       </c>
@@ -12588,7 +12455,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>3</v>
       </c>
@@ -12611,7 +12478,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -12634,7 +12501,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>4</v>
       </c>
@@ -12654,7 +12521,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -12674,7 +12541,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>4</v>
       </c>
@@ -12694,7 +12561,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>4</v>
       </c>
@@ -12714,7 +12581,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>4</v>
       </c>
@@ -12734,7 +12601,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -12754,7 +12621,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>4</v>
       </c>
@@ -12774,7 +12641,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>4</v>
       </c>
@@ -12794,7 +12661,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>4</v>
       </c>
@@ -12820,6 +12687,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C1FB3B7043DAC64BB9D8D0531B27E43A" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="637c7058cee590e55d0245223c3bc913">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c21e25ce3f606edc74c7a91776f399b" ns3:_="">
     <xsd:import namespace="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
@@ -13001,24 +12885,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BA83D4-A45C-4509-8C62-4B1EDCB3E2D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48FE10EA-92A5-4E04-85D7-39017A34D22C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3740BD-494F-4A05-BECC-CF4527899C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13034,28 +12925,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48FE10EA-92A5-4E04-85D7-39017A34D22C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BA83D4-A45C-4509-8C62-4B1EDCB3E2D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataset microorganismi singoli.xlsx
+++ b/dataset microorganismi singoli.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lorenzo.chiapparoli\Documents\SR single micro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Documents\SR single micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF02FAEE-3388-4A35-9C0F-570014558A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micro_singoli" sheetId="1" r:id="rId1"/>
     <sheet name="prove_joint" sheetId="3" r:id="rId2"/>
-    <sheet name="NT_joint" sheetId="4" r:id="rId3"/>
+    <sheet name="medie_corrette" sheetId="5" r:id="rId3"/>
+    <sheet name="NT_joint" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NT_joint!$H$2:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NT_joint!$H$2:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="58">
   <si>
     <t>Trial</t>
   </si>
@@ -179,15 +181,51 @@
   <si>
     <t>NT + brodo coltura batteri</t>
   </si>
+  <si>
+    <t>emmean</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +249,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,20 +375,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,23 +666,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -730,7 +777,7 @@
         <v>3.7690000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -778,7 +825,7 @@
         <v>3.3479999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -826,7 +873,7 @@
         <v>3.8959999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -874,7 +921,7 @@
         <v>2.5539999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -922,7 +969,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -970,7 +1017,7 @@
         <v>2.9649999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1018,7 +1065,7 @@
         <v>2.5129999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1113,7 @@
         <v>2.4049999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1161,7 @@
         <v>2.1110000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1209,7 @@
         <v>2.1960000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1257,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1305,7 @@
         <v>2.496</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1306,7 +1353,7 @@
         <v>3.5859999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1401,7 @@
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1449,7 @@
         <v>3.3580000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1497,7 @@
         <v>3.0030000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1545,7 @@
         <v>2.9350000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1546,7 +1593,7 @@
         <v>2.7959999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1594,7 +1641,7 @@
         <v>2.3580000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1689,7 @@
         <v>2.2450000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1737,7 @@
         <v>2.6339999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1785,7 @@
         <v>7.4610000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1833,7 @@
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1834,7 +1881,7 @@
         <v>6.0419999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1882,7 +1929,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1930,7 +1977,7 @@
         <v>2.0150000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +2025,7 @@
         <v>2.282</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2026,7 +2073,7 @@
         <v>1.9059999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2121,7 @@
         <v>2.6539999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2122,7 +2169,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2217,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -2218,7 +2265,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2313,7 @@
         <v>2.0139999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -2314,7 +2361,7 @@
         <v>1.583</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2362,7 +2409,7 @@
         <v>2.004</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2457,7 @@
         <v>1.915</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2505,7 @@
         <v>1.929</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2506,7 +2553,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2601,7 @@
         <v>2.0190000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2649,7 @@
         <v>1.6140000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2650,7 +2697,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -2698,7 +2745,7 @@
         <v>2.1859999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2793,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -2794,7 +2841,7 @@
         <v>1.9179999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2889,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2890,7 +2937,7 @@
         <v>2.9809999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -2938,7 +2985,7 @@
         <v>2.4119999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -2986,7 +3033,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -3034,7 +3081,7 @@
         <v>5.085</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3082,7 +3129,7 @@
         <v>6.0860000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -3130,7 +3177,7 @@
         <v>6.4809999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -3178,7 +3225,7 @@
         <v>6.7130000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3273,7 @@
         <v>5.7859999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3274,7 +3321,7 @@
         <v>6.4980000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3369,7 @@
         <v>2.319</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3417,7 @@
         <v>2.4220000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3465,7 @@
         <v>2.0670000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -3466,7 +3513,7 @@
         <v>2.0219999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3514,7 +3561,7 @@
         <v>1.903</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -3562,7 +3609,7 @@
         <v>1.9970000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -3610,7 +3657,7 @@
         <v>2.234</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -3658,7 +3705,7 @@
         <v>2.3740000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3706,7 +3753,7 @@
         <v>2.347</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3754,7 +3801,7 @@
         <v>1.9079999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3849,7 @@
         <v>2.5510000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3897,7 @@
         <v>2.3410000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -3898,7 +3945,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -3946,7 +3993,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +4041,7 @@
         <v>1.9370000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -4042,7 +4089,7 @@
         <v>3.3119999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -4090,7 +4137,7 @@
         <v>2.6829999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -4138,7 +4185,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4182,7 +4229,7 @@
         <v>2.835</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4226,7 +4273,7 @@
         <v>3.3079999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4317,7 @@
         <v>3.4289999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -4314,7 +4361,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -4358,7 +4405,7 @@
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -4402,7 +4449,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -4446,7 +4493,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -4490,7 +4537,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -4534,7 +4581,7 @@
         <v>2.1379999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -4578,7 +4625,7 @@
         <v>1.647</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -4610,7 +4657,7 @@
         <v>1.8080000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4689,7 @@
         <v>1.641</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4666,7 +4713,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>A86</f>
         <v>Trial_1</v>
@@ -4691,7 +4738,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" ref="A88:A129" si="5">A87</f>
         <v>Trial_1</v>
@@ -4716,7 +4763,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4741,7 +4788,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4766,7 +4813,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4791,7 +4838,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4816,7 +4863,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4841,7 +4888,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4866,7 +4913,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4891,7 +4938,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4916,7 +4963,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4941,7 +4988,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4966,7 +5013,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -4991,7 +5038,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5016,7 +5063,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5041,7 +5088,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5066,7 +5113,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5091,7 +5138,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5116,7 +5163,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5141,7 +5188,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5166,7 +5213,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5191,7 +5238,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5216,7 +5263,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5241,7 +5288,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5266,7 +5313,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5291,7 +5338,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5316,7 +5363,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5341,7 +5388,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5366,7 +5413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5391,7 +5438,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5416,7 +5463,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5441,7 +5488,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5466,7 +5513,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5491,7 +5538,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5516,7 +5563,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5541,7 +5588,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5566,7 +5613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5591,7 +5638,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5616,7 +5663,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5641,7 +5688,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5666,7 +5713,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5691,7 +5738,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5716,7 +5763,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="5"/>
         <v>Trial_1</v>
@@ -5741,7 +5788,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -5765,7 +5812,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>A130</f>
         <v>Trial_2</v>
@@ -5790,7 +5837,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A173" si="6">A131</f>
         <v>Trial_2</v>
@@ -5815,7 +5862,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5840,7 +5887,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5865,7 +5912,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5890,7 +5937,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5915,7 +5962,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5940,7 +5987,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5965,7 +6012,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -5990,7 +6037,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6015,7 +6062,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6040,7 +6087,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6065,7 +6112,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6090,7 +6137,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6115,7 +6162,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6140,7 +6187,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6165,7 +6212,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6190,7 +6237,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6215,7 +6262,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6240,7 +6287,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6265,7 +6312,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6290,7 +6337,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6315,7 +6362,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6340,7 +6387,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6365,7 +6412,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6390,7 +6437,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6415,7 +6462,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6440,7 +6487,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6465,7 +6512,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6490,7 +6537,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6515,7 +6562,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6540,7 +6587,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6565,7 +6612,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6590,7 +6637,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6615,7 +6662,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6640,7 +6687,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6665,7 +6712,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6690,7 +6737,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6715,7 +6762,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6740,7 +6787,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6765,7 +6812,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6790,7 +6837,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6815,7 +6862,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="6"/>
         <v>Trial_2</v>
@@ -6846,22 +6893,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6893,7 +6940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6927,7 +6974,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6960,7 +7007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6993,7 +7040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7026,7 +7073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7060,7 +7107,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7093,7 +7140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7126,7 +7173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7159,7 +7206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7193,7 +7240,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7226,7 +7273,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7259,7 +7306,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -7293,7 +7340,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -7326,7 +7373,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7359,7 +7406,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7393,7 +7440,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -7426,7 +7473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -7459,7 +7506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -7492,7 +7539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -7526,7 +7573,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7559,7 +7606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7592,7 +7639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7625,7 +7672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -7659,7 +7706,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7692,7 +7739,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -7725,7 +7772,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -7759,7 +7806,7 @@
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -7792,7 +7839,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -7825,7 +7872,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -7859,7 +7906,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7892,7 +7939,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7925,7 +7972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7958,7 +8005,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -7992,7 +8039,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -8025,7 +8072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -8058,7 +8105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -8091,7 +8138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8125,7 +8172,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8158,7 +8205,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -8191,7 +8238,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -8225,7 +8272,7 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -8258,7 +8305,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -8291,7 +8338,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8325,7 +8372,7 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -8358,7 +8405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -8391,7 +8438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -8424,7 +8471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -8458,7 +8505,7 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -8491,7 +8538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -8524,7 +8571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -8557,7 +8604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -8591,7 +8638,7 @@
       </c>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -8624,7 +8671,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -8657,7 +8704,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -8691,7 +8738,7 @@
       </c>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
@@ -8724,7 +8771,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -8757,7 +8804,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -8791,7 +8838,7 @@
       </c>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8824,7 +8871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -8857,7 +8904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -8890,7 +8937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -8924,7 +8971,7 @@
       </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8957,7 +9004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -8990,7 +9037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -9023,7 +9070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -9057,7 +9104,7 @@
       </c>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -9090,7 +9137,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -9123,7 +9170,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -9157,7 +9204,7 @@
       </c>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4</v>
       </c>
@@ -9190,7 +9237,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>4</v>
       </c>
@@ -9223,7 +9270,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -9257,7 +9304,7 @@
       </c>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -9290,7 +9337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -9323,7 +9370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -9356,7 +9403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -9390,7 +9437,7 @@
       </c>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -9423,7 +9470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -9456,7 +9503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -9489,7 +9536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -9523,7 +9570,7 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>3</v>
       </c>
@@ -9556,7 +9603,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -9589,7 +9636,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>4</v>
       </c>
@@ -9623,7 +9670,7 @@
       </c>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4</v>
       </c>
@@ -9656,7 +9703,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>4</v>
       </c>
@@ -9689,7 +9736,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -9723,7 +9770,7 @@
       </c>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -9756,7 +9803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -9789,7 +9836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -9822,7 +9869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -9856,7 +9903,7 @@
       </c>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -9889,7 +9936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -9922,7 +9969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -9955,7 +10002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -9989,7 +10036,7 @@
       </c>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>3</v>
       </c>
@@ -10022,7 +10069,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>3</v>
       </c>
@@ -10055,7 +10102,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>4</v>
       </c>
@@ -10089,7 +10136,7 @@
       </c>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>4</v>
       </c>
@@ -10122,7 +10169,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>4</v>
       </c>
@@ -10155,7 +10202,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -10189,7 +10236,7 @@
       </c>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -10222,7 +10269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -10255,7 +10302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -10288,7 +10335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -10322,7 +10369,7 @@
       </c>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -10355,7 +10402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -10388,7 +10435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -10421,7 +10468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>3</v>
       </c>
@@ -10455,7 +10502,7 @@
       </c>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>3</v>
       </c>
@@ -10488,7 +10535,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>3</v>
       </c>
@@ -10521,7 +10568,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>4</v>
       </c>
@@ -10555,7 +10602,7 @@
       </c>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>4</v>
       </c>
@@ -10588,7 +10635,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>4</v>
       </c>
@@ -10621,7 +10668,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -10655,7 +10702,7 @@
       </c>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -10688,7 +10735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -10721,7 +10768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -10754,7 +10801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -10788,7 +10835,7 @@
       </c>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -10821,7 +10868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -10854,7 +10901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -10887,7 +10934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>3</v>
       </c>
@@ -10921,7 +10968,7 @@
       </c>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>3</v>
       </c>
@@ -10954,7 +11001,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>3</v>
       </c>
@@ -10987,7 +11034,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>4</v>
       </c>
@@ -11021,7 +11068,7 @@
       </c>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>4</v>
       </c>
@@ -11054,7 +11101,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -11087,7 +11134,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -11121,7 +11168,7 @@
       </c>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -11154,7 +11201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -11187,7 +11234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -11220,7 +11267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -11254,7 +11301,7 @@
       </c>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -11287,7 +11334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -11320,7 +11367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -11353,7 +11400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>3</v>
       </c>
@@ -11387,7 +11434,7 @@
       </c>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3</v>
       </c>
@@ -11420,7 +11467,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>3</v>
       </c>
@@ -11453,7 +11500,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>4</v>
       </c>
@@ -11487,7 +11534,7 @@
       </c>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>4</v>
       </c>
@@ -11520,7 +11567,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4</v>
       </c>
@@ -11553,7 +11600,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -11587,7 +11634,7 @@
       </c>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -11620,7 +11667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -11653,7 +11700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -11686,7 +11733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2</v>
       </c>
@@ -11720,7 +11767,7 @@
       </c>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2</v>
       </c>
@@ -11753,7 +11800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2</v>
       </c>
@@ -11786,7 +11833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2</v>
       </c>
@@ -11819,7 +11866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>3</v>
       </c>
@@ -11853,7 +11900,7 @@
       </c>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>3</v>
       </c>
@@ -11886,7 +11933,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3</v>
       </c>
@@ -11919,7 +11966,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>4</v>
       </c>
@@ -11953,7 +12000,7 @@
       </c>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>4</v>
       </c>
@@ -11986,7 +12033,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>4</v>
       </c>
@@ -12020,7 +12067,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J155">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J155">
     <sortCondition ref="B2:B155"/>
     <sortCondition ref="A2:A155"/>
   </sortState>
@@ -12029,23 +12076,806 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2405E796-B52E-4286-A2F0-C7709798D96C}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>11.00214126327255</v>
+      </c>
+      <c r="D2">
+        <v>3.5277286639598771</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>27.484045998681029</v>
+      </c>
+      <c r="D3">
+        <v>3.4559263161395188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>39.645884005510069</v>
+      </c>
+      <c r="D4">
+        <v>3.837345879651926</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>42.563506884896761</v>
+      </c>
+      <c r="D5">
+        <v>3.9949692267783119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>42.674718478055887</v>
+      </c>
+      <c r="D6">
+        <v>3.4739217045599</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>46.311045046598608</v>
+      </c>
+      <c r="D7">
+        <v>4.2622318590789687</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>34.72906390181906</v>
+      </c>
+      <c r="D8">
+        <v>3.7307690384580798</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>14.77948408100916</v>
+      </c>
+      <c r="D9">
+        <v>4.1195694968226224</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>45.155033976048799</v>
+      </c>
+      <c r="D10">
+        <v>3.4044510553131841</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>49.309898531593213</v>
+      </c>
+      <c r="D11">
+        <v>3.3086514397323432</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>38.484118006538218</v>
+      </c>
+      <c r="D12">
+        <v>3.7229166513241729</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>42.02604022098285</v>
+      </c>
+      <c r="D13">
+        <v>4.6674531229753953</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>20.47408246388359</v>
+      </c>
+      <c r="D14">
+        <v>3.5756493533615941</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>39.321207962395043</v>
+      </c>
+      <c r="D15">
+        <v>3.1438454180431221</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>42.849533520486389</v>
+      </c>
+      <c r="D16">
+        <v>4.5521283811118067</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>41.845387985211957</v>
+      </c>
+      <c r="D17">
+        <v>6.8650016613883276</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18">
+        <v>33.309093693359863</v>
+      </c>
+      <c r="D18">
+        <v>3.1116752877195268</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>48.075841721805801</v>
+      </c>
+      <c r="D19">
+        <v>4.0935229730883256</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>36.72837762368674</v>
+      </c>
+      <c r="D20">
+        <v>3.6874836376051112</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>16.17261274716591</v>
+      </c>
+      <c r="D21">
+        <v>3.9566418810695669</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>10.54887541299497</v>
+      </c>
+      <c r="D22">
+        <v>3.478005394873362</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>22.910100868356981</v>
+      </c>
+      <c r="D23">
+        <v>3.487105948411624</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>39.985023076054453</v>
+      </c>
+      <c r="D24">
+        <v>3.67993175761243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>44.972458748354448</v>
+      </c>
+      <c r="D25">
+        <v>3.9811088477457051</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>16.391995065757708</v>
+      </c>
+      <c r="D26">
+        <v>3.5654619602617581</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>28.876248414871419</v>
+      </c>
+      <c r="D27">
+        <v>3.4094326469723151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>40.491031246510438</v>
+      </c>
+      <c r="D28">
+        <v>3.611421682923134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>50.55374376819384</v>
+      </c>
+      <c r="D29">
+        <v>4.1467143043839627</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>36.548588454529117</v>
+      </c>
+      <c r="D30">
+        <v>3.368551602326133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>49.769679318309223</v>
+      </c>
+      <c r="D31">
+        <v>3.2255258746131719</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>33.485752275528689</v>
+      </c>
+      <c r="D32">
+        <v>7.0767972139374562</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>34.20214628772235</v>
+      </c>
+      <c r="D33">
+        <v>6.9276611535808303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>44.385482033777862</v>
+      </c>
+      <c r="D34">
+        <v>3.4362305508429039</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>53.04434637182429</v>
+      </c>
+      <c r="D35">
+        <v>4.7942367753464454</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>40.0326703881463</v>
+      </c>
+      <c r="D36">
+        <v>3.825531002796827</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>38.866723803861589</v>
+      </c>
+      <c r="D37">
+        <v>8.6034857739938015</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>37.513617497415957</v>
+      </c>
+      <c r="D38">
+        <v>3.3590550601328828</v>
+      </c>
+      <c r="E38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>34.228615454424919</v>
+      </c>
+      <c r="D39">
+        <v>3.273709136834229</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>42.135106752188342</v>
+      </c>
+      <c r="D40">
+        <v>3.714054097927157</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>44.932655363031323</v>
+      </c>
+      <c r="D41">
+        <v>4.3975658915568614</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42">
+        <v>22.96927716544992</v>
+      </c>
+      <c r="D42">
+        <v>3.4877631690865658</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>33.222829597437219</v>
+      </c>
+      <c r="D43">
+        <v>3.3512815702855669</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>29.735399116120199</v>
+      </c>
+      <c r="D44">
+        <v>3.909652042333418</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>48.786000257994147</v>
+      </c>
+      <c r="D45">
+        <v>3.8091579532394468</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="22.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.85546875" style="7"/>
-    <col min="6" max="6" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -12066,7 +12896,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -12086,7 +12916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -12106,7 +12936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -12126,7 +12956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -12146,7 +12976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -12166,7 +12996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -12197,7 +13027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -12233,7 +13063,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -12269,7 +13099,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
@@ -12291,20 +13121,20 @@
       <c r="I10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="5">
         <f>AVERAGE(C10:C18)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="6">
         <f>AVERAGE(D10:D18)</f>
         <v>211.37777777777782</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="16">
         <f>AVERAGE(E10:E18)</f>
         <v>5.333333333333333E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -12324,23 +13154,23 @@
         <v>23.75</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <f>AVERAGE(C19:C27)</f>
         <v>0.35555555555555557</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <f>AVERAGE(D19:D27)</f>
         <v>195.82222222222222</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>AVERAGE(E19:E27)</f>
         <v>0.43444444444444447</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -12363,7 +13193,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>3</v>
       </c>
@@ -12386,7 +13216,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -12409,7 +13239,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>3</v>
       </c>
@@ -12432,7 +13262,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>3</v>
       </c>
@@ -12455,7 +13285,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>3</v>
       </c>
@@ -12478,7 +13308,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -12501,7 +13331,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
@@ -12521,7 +13351,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -12541,7 +13371,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>4</v>
       </c>
@@ -12561,7 +13391,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>4</v>
       </c>
@@ -12581,7 +13411,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>4</v>
       </c>
@@ -12601,7 +13431,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -12621,7 +13451,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>4</v>
       </c>
@@ -12641,7 +13471,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>4</v>
       </c>
@@ -12661,7 +13491,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>4</v>
       </c>
@@ -12687,23 +13517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C1FB3B7043DAC64BB9D8D0531B27E43A" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="637c7058cee590e55d0245223c3bc913">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c21e25ce3f606edc74c7a91776f399b" ns3:_="">
     <xsd:import namespace="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
@@ -12885,31 +13698,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BA83D4-A45C-4509-8C62-4B1EDCB3E2D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48FE10EA-92A5-4E04-85D7-39017A34D22C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="22c16e5b-941a-42c7-b6f0-5f38e39a85f1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3740BD-494F-4A05-BECC-CF4527899C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12925,4 +13731,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48FE10EA-92A5-4E04-85D7-39017A34D22C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8BA83D4-A45C-4509-8C62-4B1EDCB3E2D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="22c16e5b-941a-42c7-b6f0-5f38e39a85f1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>